--- a/サンプルプロジェクトシューティング/game/data/csv/stage.xlsx
+++ b/サンプルプロジェクトシューティング/game/data/csv/stage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamePG\Documents\GitHub\3d_sample\サンプルプロジェクトシューティング\game\data\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3285322-05C4-4742-813C-2FABE2720AE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E86D34-59D0-4C9C-A6A9-1BB9F0C4D5ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" xr2:uid="{223ACB22-F5E7-45A5-922A-3CC53FAB2940}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -589,79 +589,60 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <f ca="1">IF(B2&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <f ca="1">IF(C2&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:R17" ca="1" si="0">IF(D2&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="L2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="N2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R2" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S2" s="5">
-        <f t="shared" ref="S2:T17" ca="1" si="1">IF(S2&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="T2" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U2" s="6">
@@ -673,79 +654,60 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:Q21" ca="1" si="2">IF(B3&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R3" s="5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S3" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="T3" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U3" s="6">
@@ -756,13 +718,11 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -773,20 +733,17 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="D2:R17" ca="1" si="0">IF(J4&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
@@ -797,17 +754,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -818,13 +772,11 @@
       <c r="R4">
         <v>1</v>
       </c>
-      <c r="S4" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
       </c>
       <c r="U4" s="6">
         <v>1</v>
@@ -834,13 +786,11 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -851,17 +801,14 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -875,17 +822,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -896,13 +840,11 @@
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="S5" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
       </c>
       <c r="U5" s="6">
         <v>1</v>
@@ -912,13 +854,11 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -929,17 +869,14 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -953,17 +890,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -974,13 +908,11 @@
       <c r="R6">
         <v>1</v>
       </c>
-      <c r="S6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
       </c>
       <c r="U6" s="6">
         <v>1</v>
@@ -991,79 +923,79 @@
         <v>1</v>
       </c>
       <c r="B7" s="5">
+        <f t="shared" ref="B3:Q20" ca="1" si="1">IF(B7&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" ref="S2:T17" ca="1" si="2">IF(S7&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U7" s="6">
@@ -1075,79 +1007,79 @@
         <v>1</v>
       </c>
       <c r="B8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="T8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U8" s="6">
@@ -1159,74 +1091,79 @@
         <v>1</v>
       </c>
       <c r="B9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="T9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U9" s="6">
@@ -1238,74 +1175,79 @@
         <v>1</v>
       </c>
       <c r="B10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="T10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="12">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U10" s="6">
@@ -1317,74 +1259,78 @@
         <v>1</v>
       </c>
       <c r="B11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="C11" s="5">
+      <c r="T11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="12">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U11" s="6">
@@ -1396,79 +1342,78 @@
         <v>1</v>
       </c>
       <c r="B12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="T12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U12" s="6">
@@ -1480,79 +1425,73 @@
         <v>1</v>
       </c>
       <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="C13" s="5">
+      <c r="T13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U13" s="6">
@@ -1564,79 +1503,73 @@
         <v>1</v>
       </c>
       <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="C14" s="5">
+      <c r="T14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U14" s="6">
@@ -1647,74 +1580,63 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="C15" s="5">
+      <c r="T15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U15" s="6">
@@ -1725,74 +1647,63 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="C16" s="5">
+      <c r="T16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U16" s="6">
@@ -1803,74 +1714,63 @@
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="C17" s="5">
+      <c r="T17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="U17" s="6">
@@ -1882,67 +1782,67 @@
         <v>1</v>
       </c>
       <c r="B18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="R18" s="5">
@@ -1966,11 +1866,11 @@
         <v>1</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D19" s="5">
@@ -2050,11 +1950,11 @@
         <v>1</v>
       </c>
       <c r="B20" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D20" s="5">
